--- a/firestore_테이블명세.xlsx
+++ b/firestore_테이블명세.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050002\Documents\workspace\3week_project_android\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A713554-8F96-4F04-9DE0-4223B51CAE0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEB6092-3F02-4C3E-9061-A2467F515761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="1725" windowWidth="15165" windowHeight="11940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3045" yWindow="1125" windowWidth="23805" windowHeight="13305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="저자정보테이블" sheetId="10" r:id="rId1"/>
-    <sheet name="레시피테이블" sheetId="13" r:id="rId2"/>
+    <sheet name="회원테이블" sheetId="10" r:id="rId1"/>
+    <sheet name="메모테이블" sheetId="13" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>NULL ?</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NOT NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -951,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1608,7 +1604,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>14</v>
@@ -1633,7 +1629,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -1654,7 +1650,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -1680,7 +1676,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -1706,18 +1702,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="G6" s="16"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
@@ -1729,18 +1723,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>25</v>
-      </c>
       <c r="E7" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
       <c r="J7" s="16"/>
@@ -1752,18 +1744,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="G8" s="16"/>
       <c r="H8" s="16"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -1775,13 +1765,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
@@ -1796,13 +1786,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
@@ -1997,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615ECE35-9735-43F5-90D8-82DE56CF6B82}">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2654,7 +2644,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>14</v>
@@ -2679,7 +2669,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="24"/>
@@ -2700,7 +2690,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -2726,7 +2716,7 @@
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -2752,13 +2742,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="16"/>
@@ -2773,13 +2763,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
@@ -2794,13 +2784,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
